--- a/プロダクトバックログ.xlsx
+++ b/プロダクトバックログ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>画面遷移を減らす（「Let's start」画面）</t>
     <rPh sb="0" eb="4">
@@ -142,6 +142,20 @@
     <rPh sb="0" eb="2">
       <t>ナカムラ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スプリント（締め切り）</t>
+    <rPh sb="6" eb="7">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12/7-12/14</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -494,19 +508,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="46.625" customWidth="1"/>
     <col min="3" max="3" width="44.25" customWidth="1"/>
+    <col min="5" max="5" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -516,8 +531,11 @@
       <c r="D1" t="s">
         <v>8</v>
       </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -530,8 +548,11 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -542,8 +563,11 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -556,8 +580,11 @@
       <c r="D4" t="s">
         <v>11</v>
       </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -567,6 +594,9 @@
       </c>
       <c r="D5" t="s">
         <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/プロダクトバックログ.xlsx
+++ b/プロダクトバックログ.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
   <si>
     <t>画面遷移を減らす（「Let's start」画面）</t>
     <rPh sb="0" eb="4">
@@ -64,10 +64,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザーストーリー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>いいねをすぐに押したくなる</t>
     <rPh sb="7" eb="8">
       <t>オ</t>
@@ -155,15 +151,247 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>項番</t>
+    <rPh sb="0" eb="1">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ツガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーストーリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>12/7-12/14</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    画面の遷移を簡単にする</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンタン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>臼杵</t>
+    <rPh sb="0" eb="2">
+      <t>ウスキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12/7-12/14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バグの修正</t>
+    <rPh sb="3" eb="5">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　不具合を探す</t>
+    <rPh sb="2" eb="5">
+      <t>フグアイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>サガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>臼杵　</t>
+    <rPh sb="0" eb="2">
+      <t>ウスキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    バグのコードを修正する</t>
+    <rPh sb="11" eb="13">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　トップ画面を修正</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　トップ画面のバグを直す（ちゃんと表示させる）</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ナオ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12/15-12/21</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　主要ブラウザで動作するか確認する</t>
+    <rPh sb="2" eb="4">
+      <t>シュヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   サンプルアプリを作成して 「いいね！」を集める</t>
+    <rPh sb="11" eb="13">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>アツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12/7-12/14</t>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランダムでくるくるの後にサーバ側で止めてかつ、ウォールに書きこむ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>難しいので後回し</t>
+    <rPh sb="0" eb="1">
+      <t>ムズカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>アトマワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいねしたら勝手にはじまるようにしたい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2択、2択、5択問題を出題する</t>
+    <rPh sb="1" eb="2">
+      <t>タク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュツダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象のソースコードを修正する</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト用サーバをもう一台立てたい</t>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イチダイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>既存のUbuntuサーバを利用する</t>
+    <rPh sb="0" eb="2">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択肢の画面をリッチな感じにしたい</t>
+    <rPh sb="0" eb="3">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12/15-12/21</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,15 +407,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -195,17 +429,90 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -222,7 +529,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -296,7 +603,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -331,7 +637,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -507,102 +812,292 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="46.625" customWidth="1"/>
     <col min="3" max="3" width="44.25" customWidth="1"/>
     <col min="5" max="5" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="6"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
+      <c r="E12" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="6"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="27">
+      <c r="A14" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -611,12 +1106,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -624,12 +1119,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/プロダクトバックログ.xlsx
+++ b/プロダクトバックログ.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="59">
   <si>
     <t>画面遷移を減らす（「Let's start」画面）</t>
     <rPh sb="0" eb="4">
@@ -151,16 +151,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>項番</t>
-    <rPh sb="0" eb="1">
-      <t>コウ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ツガイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザーストーリー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -277,10 +267,6 @@
     <t>12/7-12/14</t>
   </si>
   <si>
-    <t>3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ランダムでくるくるの後にサーバ側で止めてかつ、ウォールに書きこむ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -299,15 +285,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>いいねしたら勝手にはじまるようにしたい</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -340,10 +318,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テスト用サーバをもう一台立てたい</t>
     <rPh sb="3" eb="4">
       <t>ヨウ</t>
@@ -367,31 +341,202 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>選択肢の画面をリッチな感じにしたい</t>
-    <rPh sb="0" eb="3">
-      <t>センタクシ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
+    <t>ステータス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいねを押した後の画面で表示する内容の工夫</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="9" eb="11">
       <t>ガメン</t>
     </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>クフウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　画像素材を用意</t>
+    <rPh sb="2" eb="6">
+      <t>ガゾウソザイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　HTMLとCSSを書いてシステムに実装</t>
     <rPh sb="11" eb="12">
-      <t>カン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>12/15-12/21</t>
+      <t>カ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>―</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>―</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rank</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>言語が自動で切り替わり、日本人と外国人が両方使える</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ニホンジン</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ガイコクジン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいね前ページ</t>
+    <rPh sb="3" eb="4">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいね後ページ</t>
+    <rPh sb="3" eb="4">
+      <t>アト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問ページ</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果ページ</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>嶺井</t>
+    <rPh sb="0" eb="2">
+      <t>ミネイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このアプリを誰かに売りたい</t>
+    <rPh sb="6" eb="7">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LPの原稿を用意</t>
+    <rPh sb="3" eb="5">
+      <t>ゲンコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広告出稿</t>
+    <rPh sb="0" eb="4">
+      <t>コウコクシュッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択肢画面（PC版）をリッチな感じにしたい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果画面（PC版）をリッチな感じにしたい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC版のユーザーエクスペリエンスを改善する</t>
+    <rPh sb="2" eb="3">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カイゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択肢画面（スマホ版）をリッチな感じにしたい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果画面（スマホ版）をリッチな感じにしたい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スマホ版のユーザーエクスペリエンスを改善する</t>
+    <rPh sb="3" eb="4">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カイゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,21 +630,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -510,9 +646,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -529,7 +698,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -603,6 +772,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -637,6 +807,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -812,292 +983,658 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="46.625" customWidth="1"/>
+    <col min="1" max="1" width="9" style="19"/>
+    <col min="2" max="2" width="46.625" style="15" customWidth="1"/>
     <col min="3" max="3" width="44.25" customWidth="1"/>
-    <col min="5" max="5" width="32.125" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="6" max="6" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="8"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="5"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="8"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="5"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="8"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="5"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="4" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="8"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="5"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="8"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="8">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="8"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="8"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="8"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="8"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="8"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="6"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2">
-        <v>2</v>
-      </c>
-      <c r="B8" s="7" t="s">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="8"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="8"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="8"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="8"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="9">
+        <v>3</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="10"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="10"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="10"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="10"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="10"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="10"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="11"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="8">
         <v>4</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="B26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="8"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="8"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="8"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="9">
         <v>5</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="5"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="5"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="4" t="s">
+      <c r="B30" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="10"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="10"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="4" t="s">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="10"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="5"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="10"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="10"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="10"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="11"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="5"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="4" t="s">
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="8">
         <v>6</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="6"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="B38" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="8"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="8"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" s="8"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" s="18"/>
+      <c r="B42" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" s="18"/>
+      <c r="B43" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A44" s="18"/>
+      <c r="B44" s="14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="27">
-      <c r="A14" s="10" t="s">
+      <c r="C44" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="4" t="s">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" s="18"/>
+      <c r="B45" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>43</v>
+      <c r="C45" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="12">
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="B30:B37"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="A26:A29"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="A8:A17"/>
+    <mergeCell ref="B8:B17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1106,12 +1643,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1119,12 +1656,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/プロダクトバックログ.xlsx
+++ b/プロダクトバックログ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="71">
   <si>
     <t>画面遷移を減らす（「Let's start」画面）</t>
     <rPh sb="0" eb="4">
@@ -434,20 +434,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>いいね前ページ</t>
-    <rPh sb="3" eb="4">
-      <t>マエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>いいね後ページ</t>
-    <rPh sb="3" eb="4">
-      <t>アト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>質問ページ</t>
     <rPh sb="0" eb="2">
       <t>シツモン</t>
@@ -529,6 +515,131 @@
     <rPh sb="18" eb="20">
       <t>カイゼン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像素材を用意</t>
+    <rPh sb="0" eb="4">
+      <t>ガゾウソザイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTMLとCSSを書いてシステムに実装</t>
+    <rPh sb="9" eb="10">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>臼杵</t>
+    <rPh sb="0" eb="2">
+      <t>ウスキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中村</t>
+    <rPh sb="0" eb="2">
+      <t>ナカムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>友人の投稿を見て自分もアプリを使いたくなる</t>
+    <rPh sb="0" eb="2">
+      <t>ユウジン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリタイトルの工夫</t>
+    <rPh sb="8" eb="10">
+      <t>クフウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウォールに流れるテキストの工夫</t>
+    <rPh sb="5" eb="6">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>クフウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>齊藤</t>
+    <rPh sb="0" eb="2">
+      <t>サイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいね前ページ（素材作成）</t>
+    <rPh sb="3" eb="4">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいね後ページ（素材作成）</t>
+    <rPh sb="3" eb="4">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ソザイサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいね後ページ（コーディング）</t>
+    <rPh sb="3" eb="4">
+      <t>アト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいね前ページ（コーディング）</t>
+    <rPh sb="3" eb="4">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>嶺井</t>
+    <rPh sb="0" eb="2">
+      <t>ミネイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>―</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -635,31 +746,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -681,6 +768,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -984,26 +1095,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="19"/>
-    <col min="2" max="2" width="46.625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="9" style="11"/>
+    <col min="2" max="2" width="46.625" style="7" customWidth="1"/>
     <col min="3" max="3" width="44.25" customWidth="1"/>
     <col min="4" max="4" width="11.875" customWidth="1"/>
     <col min="6" max="6" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1020,10 +1131,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="8">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1040,8 +1151,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="8"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
@@ -1056,8 +1167,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="8"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
@@ -1072,8 +1183,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="8"/>
-      <c r="B5" s="3"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
@@ -1086,8 +1197,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="8"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
@@ -1100,8 +1211,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="8"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1116,10 +1227,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="8">
+      <c r="A8" s="13">
         <v>2</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1134,8 +1245,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="8"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="2" t="s">
         <v>39</v>
       </c>
@@ -1148,8 +1259,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="8"/>
-      <c r="B10" s="3"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="2" t="s">
         <v>40</v>
       </c>
@@ -1162,8 +1273,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="8"/>
-      <c r="B11" s="3"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="2" t="s">
         <v>25</v>
       </c>
@@ -1176,8 +1287,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="8"/>
-      <c r="B12" s="3"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="2" t="s">
         <v>38</v>
       </c>
@@ -1190,8 +1301,8 @@
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="8"/>
-      <c r="B13" s="3"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="2" t="s">
         <v>22</v>
       </c>
@@ -1206,8 +1317,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="8"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="2" t="s">
         <v>23</v>
       </c>
@@ -1222,8 +1333,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="8"/>
-      <c r="B15" s="3"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
@@ -1238,8 +1349,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="8"/>
-      <c r="B16" s="3"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="2" t="s">
         <v>6</v>
       </c>
@@ -1254,8 +1365,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="8"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="2" t="s">
         <v>26</v>
       </c>
@@ -1270,22 +1381,24 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="9">
+      <c r="A18" s="17">
         <v>3</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>55</v>
+      <c r="B18" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="10"/>
-      <c r="B19" s="5"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="2" t="s">
         <v>39</v>
       </c>
@@ -1293,348 +1406,404 @@
       <c r="E19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="10"/>
-      <c r="B20" s="5"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="10"/>
-      <c r="B21" s="5"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="10"/>
-      <c r="B22" s="5"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="10"/>
-      <c r="B23" s="5"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="E23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="10"/>
-      <c r="B24" s="5"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="E24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="11"/>
-      <c r="B25" s="6"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="E25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="8">
+      <c r="A26" s="17"/>
+      <c r="B26" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="18"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="13">
         <v>4</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B28" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="13"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="13"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="13"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="13"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="8"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="2" t="s">
+      <c r="D32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="13"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="8"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="2" t="s">
+      <c r="D33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="8"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="9">
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="17">
         <v>5</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="B34" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="10"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="10"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="10"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="10"/>
-      <c r="B34" s="5"/>
       <c r="C34" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
+      <c r="E34" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="10"/>
-      <c r="B35" s="5"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="15"/>
       <c r="C35" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="D35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="10"/>
-      <c r="B36" s="5"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="15"/>
       <c r="C36" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="E36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="11"/>
-      <c r="B37" s="6"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="15"/>
       <c r="C37" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="E37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="8">
-        <v>6</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>51</v>
+      <c r="A38" s="18"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
+      <c r="E38" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="8"/>
-      <c r="B39" s="3"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="15"/>
       <c r="C39" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
+      <c r="D39" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="8"/>
-      <c r="B40" s="3"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="15"/>
       <c r="C40" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
+      <c r="E40" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="8"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="16" t="s">
-        <v>52</v>
+      <c r="A41" s="19"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
+      <c r="E41" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="18"/>
-      <c r="B42" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>33</v>
+      <c r="A42" s="13">
+        <v>6</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-      <c r="F42" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="18"/>
-      <c r="B43" s="13" t="s">
-        <v>34</v>
-      </c>
+      <c r="A43" s="13"/>
+      <c r="B43" s="12"/>
       <c r="C43" s="2" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
-      <c r="F43" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A44" s="18"/>
-      <c r="B44" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>29</v>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" s="13"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="2" t="s">
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" s="13"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" s="10"/>
+      <c r="B46" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47" s="10"/>
+      <c r="B47" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A48" s="10"/>
+      <c r="B48" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="18"/>
-      <c r="B45" s="13" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" s="10"/>
+      <c r="B49" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2" t="s">
+      <c r="D49" s="2"/>
+      <c r="E49" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="B30:B37"/>
-    <mergeCell ref="A30:A37"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="A26:A29"/>
+  <mergeCells count="14">
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="A8:A17"/>
     <mergeCell ref="B8:B17"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="A28:A33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/プロダクトバックログ.xlsx
+++ b/プロダクトバックログ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="71">
   <si>
     <t>画面遷移を減らす（「Let's start」画面）</t>
     <rPh sb="0" eb="4">
@@ -271,16 +271,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>難しいので後回し</t>
-    <rPh sb="0" eb="1">
-      <t>ムズカ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>アトマワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -640,6 +630,10 @@
   </si>
   <si>
     <t>―</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -771,9 +765,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -784,12 +784,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1097,8 +1091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48:C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1112,7 +1106,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>13</v>
@@ -1121,7 +1115,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -1131,17 +1125,17 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="13">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
@@ -1151,13 +1145,13 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
-      <c r="B3" s="12"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>16</v>
@@ -1167,13 +1161,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>16</v>
@@ -1183,8 +1177,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-      <c r="B5" s="12"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
@@ -1197,8 +1191,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
@@ -1211,13 +1205,13 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="13"/>
-      <c r="B7" s="12"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>9</v>
@@ -1227,10 +1221,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="13">
+      <c r="A8" s="12">
         <v>2</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1238,17 +1232,17 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
@@ -1259,10 +1253,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
@@ -1273,8 +1267,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
-      <c r="B11" s="12"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="2" t="s">
         <v>25</v>
       </c>
@@ -1287,27 +1281,27 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="13"/>
-      <c r="B12" s="12"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="13"/>
-      <c r="B13" s="12"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>10</v>
@@ -1317,13 +1311,13 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="13"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>10</v>
@@ -1333,13 +1327,13 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="13"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>10</v>
@@ -1349,13 +1343,13 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="13"/>
-      <c r="B16" s="12"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>11</v>
@@ -1365,13 +1359,13 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="13"/>
-      <c r="B17" s="12"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>11</v>
@@ -1381,26 +1375,26 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="17">
+      <c r="A18" s="14">
         <v>3</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>53</v>
+      <c r="B18" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="18"/>
-      <c r="B19" s="15"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
@@ -1409,192 +1403,192 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="18"/>
-      <c r="B20" s="15"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="18"/>
-      <c r="B21" s="15"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="18"/>
-      <c r="B22" s="15"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="18"/>
-      <c r="B23" s="15"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="18"/>
-      <c r="B24" s="15"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="19"/>
-      <c r="B25" s="16"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="17"/>
-      <c r="B26" s="14" t="s">
+      <c r="A26" s="14"/>
+      <c r="B26" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="18"/>
-      <c r="B27" s="15"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="12">
+        <v>4</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="13">
-        <v>4</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="13"/>
-      <c r="B29" s="12"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="13"/>
-      <c r="B30" s="12"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="13"/>
-      <c r="B31" s="12"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
       <c r="C31" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="13"/>
-      <c r="B32" s="12"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
       <c r="C32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="13"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="17">
+      <c r="A34" s="14">
         <v>5</v>
       </c>
-      <c r="B34" s="14" t="s">
-        <v>56</v>
+      <c r="B34" s="16" t="s">
+        <v>55</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
@@ -1603,24 +1597,24 @@
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="18"/>
-      <c r="B35" s="15"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="17"/>
       <c r="C35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="15"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="18"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
@@ -1629,8 +1623,8 @@
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="18"/>
-      <c r="B37" s="15"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="17"/>
       <c r="C37" s="2" t="s">
         <v>25</v>
       </c>
@@ -1641,10 +1635,10 @@
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="18"/>
-      <c r="B38" s="15"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="17"/>
       <c r="C38" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2" t="s">
@@ -1653,24 +1647,24 @@
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="18"/>
-      <c r="B39" s="15"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="17"/>
       <c r="C39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="15"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="18"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
@@ -1680,7 +1674,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="19"/>
-      <c r="B41" s="16"/>
+      <c r="B41" s="18"/>
       <c r="C41" s="2" t="s">
         <v>25</v>
       </c>
@@ -1691,111 +1685,109 @@
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="13">
+      <c r="A42" s="12">
         <v>6</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>49</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="13"/>
-      <c r="B43" s="12"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="13"/>
       <c r="C43" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="13"/>
-      <c r="B44" s="12"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="13"/>
       <c r="C44" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="13"/>
-      <c r="B45" s="12"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="13"/>
       <c r="C45" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="10"/>
+      <c r="A46" s="10" t="s">
+        <v>70</v>
+      </c>
       <c r="B46" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="10"/>
+      <c r="A47" s="10" t="s">
+        <v>70</v>
+      </c>
       <c r="B47" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A48" s="10"/>
+      <c r="A48" s="10" t="s">
+        <v>70</v>
+      </c>
       <c r="B48" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="C48" s="3"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" s="10"/>
-      <c r="B49" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="A8:A17"/>
-    <mergeCell ref="B8:B17"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
     <mergeCell ref="B42:B45"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="B18:B25"/>
@@ -1804,6 +1796,12 @@
     <mergeCell ref="A18:A25"/>
     <mergeCell ref="B28:B33"/>
     <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="A8:A17"/>
+    <mergeCell ref="B8:B17"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
